--- a/testData_cucumber/UI/BAU_Regression/Executionsheet.xlsx
+++ b/testData_cucumber/UI/BAU_Regression/Executionsheet.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="JIRA" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="78">
   <si>
     <t>Execute</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>TC001_Search and add product</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,13 +691,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>4</v>
@@ -705,7 +708,9 @@
       <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1090,7 +1095,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>4</v>

--- a/testData_cucumber/UI/BAU_Regression/Executionsheet.xlsx
+++ b/testData_cucumber/UI/BAU_Regression/Executionsheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="76">
   <si>
     <t>Execute</t>
   </si>
@@ -238,12 +238,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Login for TestID</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>Status</t>
@@ -342,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -364,10 +358,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,10 +639,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,15 +673,15 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>71</v>
@@ -709,407 +699,9 @@
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData_cucumber/UI/BAU_Regression/Executionsheet.xlsx
+++ b/testData_cucumber/UI/BAU_Regression/Executionsheet.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView windowHeight="9372" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BDD" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="JIRA" sheetId="3" r:id="rId4"/>
+    <sheet name="BDD" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="4"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="2"/>
+    <sheet name="JIRA" r:id="rId4" sheetId="3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="77">
   <si>
     <t>Execute</t>
   </si>
@@ -250,12 +250,16 @@
   </si>
   <si>
     <t>TC001_Search and add product</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,36 +338,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -380,10 +384,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -418,7 +422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -453,7 +457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -547,21 +551,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -578,7 +582,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -630,16 +634,16 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -647,10 +651,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="77.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -699,18 +703,18 @@
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -718,9 +722,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="77.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1104,14 +1108,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1119,9 +1123,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="74.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1445,13 +1449,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1459,9 +1463,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="74.0" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1718,6 +1722,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/testData_cucumber/UI/BAU_Regression/Executionsheet.xlsx
+++ b/testData_cucumber/UI/BAU_Regression/Executionsheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="79">
   <si>
     <t>Execute</t>
   </si>
@@ -246,13 +246,19 @@
     <t>ClaimNo</t>
   </si>
   <si>
+    <t>TC001_Skill Edit</t>
+  </si>
+  <si>
+    <t>TC002_Education Edit</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>TC001_Search and add product</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -643,10 +649,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,7 +691,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>71</v>
@@ -703,9 +709,37 @@
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/testData_cucumber/UI/BAU_Regression/Executionsheet.xlsx
+++ b/testData_cucumber/UI/BAU_Regression/Executionsheet.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="9372" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
-    <sheet name="BDD" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="4"/>
-    <sheet name="Sheet1" r:id="rId3" sheetId="2"/>
-    <sheet name="JIRA" r:id="rId4" sheetId="3"/>
+    <sheet name="BDD" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="JIRA" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="79">
   <si>
     <t>Execute</t>
   </si>
@@ -265,7 +265,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,36 +343,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -390,10 +389,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -428,7 +427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -463,7 +462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -557,21 +556,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -588,7 +587,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -640,27 +639,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="77.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="6.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="1" width="77.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -723,7 +722,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>4</v>
@@ -742,13 +741,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -756,9 +755,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="77.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="1" width="77.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1142,14 +1141,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1157,9 +1156,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="74.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="1" width="74" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1483,13 +1482,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1497,9 +1496,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="74.0" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="1" width="74" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1756,6 +1755,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testData_cucumber/UI/BAU_Regression/Executionsheet.xlsx
+++ b/testData_cucumber/UI/BAU_Regression/Executionsheet.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView windowHeight="9372" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BDD" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="JIRA" sheetId="3" r:id="rId4"/>
+    <sheet name="BDD" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="4"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="2"/>
+    <sheet name="JIRA" r:id="rId4" sheetId="3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="79">
   <si>
     <t>Execute</t>
   </si>
@@ -265,6 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,36 +344,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -389,10 +390,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -427,7 +428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -462,7 +463,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -556,21 +557,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -587,7 +588,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -639,27 +640,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="77.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -682,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>73</v>
@@ -708,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>77</v>
@@ -734,20 +735,20 @@
         <v>6</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -755,9 +756,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="77.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1141,14 +1142,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1156,9 +1157,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="74.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1482,13 +1483,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1496,9 +1497,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="74.0" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1755,6 +1756,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>